--- a/web_ces/indicadores/SFE-XPP_out.xlsx
+++ b/web_ces/indicadores/SFE-XPP_out.xlsx
@@ -21120,13 +21120,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97B87B52-ECEE-4CFA-A319-59C6FBB691E4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CFD4C93-6B11-42D6-ADFC-6906CC5CFF0B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B02BC474-15B4-4028-8615-D355FBF971CA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0A02E46-B927-4798-B80B-1C31382F793E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3ACADD1-8E44-47E7-BEF2-A00C78CA7539}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51EB558-CC66-409A-85BC-DAE23FEA4704}"/>
 </file>